--- a/biology/Médecine/1782_en_santé_et_médecine/1782_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1782_en_santé_et_médecine/1782_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1782_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1782_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1782 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1782_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1782_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1781-1782, près de 30 000 personnes meurent dans le Languedoc d’une sévère épidémie de suette miliaire[1].
-Pierre-François Percy (1754-1825) est nommé chirurgien-major du régiment de Berry cavalerie[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1781-1782, près de 30 000 personnes meurent dans le Languedoc d’une sévère épidémie de suette miliaire.
+Pierre-François Percy (1754-1825) est nommé chirurgien-major du régiment de Berry cavalerie.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1782_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1782_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michel Chevreul (1745-1845), père du chimiste Michel-Eugène Chevreul, publie Précis de l'art des accouchements en faveur des sages-femmes &amp; des élèves en cet art, Angers, P.-F. Didot, 1782, 1re éd., 322 p. (lire en ligne sur Gallica).
-Franz Anton Mai (de) (1742-1814) publie (de) Unterricht für Krankenwärter zum Gebrauch öffentlicher Vorlesungen, Mannheim, Schwan, 1782, 1re éd. (lire en ligne), Instructions pour les infirmières destinées aux deux écoles de formation qu’il a créées en 1781 et 1783, respectivement à Mannheim et à Karlsruhe[3].</t>
+Franz Anton Mai (de) (1742-1814) publie (de) Unterricht für Krankenwärter zum Gebrauch öffentlicher Vorlesungen, Mannheim, Schwan, 1782, 1re éd. (lire en ligne), Instructions pour les infirmières destinées aux deux écoles de formation qu’il a créées en 1781 et 1783, respectivement à Mannheim et à Karlsruhe.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1782_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1782_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10 mai : Louis René Villermé (mort en 1863), auteur en 1840 du Tableau de l'état physique et moral des ouvriers employés dans les manufactures[4] qui est à l'origine de la loi de 1841 sur le travail des enfants[Note 1] et de celle de 1850 sur la location de logements insalubres.
-20 août : Nicolas-Philibert Adelon (mort en 1862), médecin et physiologiste français, auteur de la Physiologie de l'homme en 4 volumes[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10 mai : Louis René Villermé (mort en 1863), auteur en 1840 du Tableau de l'état physique et moral des ouvriers employés dans les manufactures qui est à l'origine de la loi de 1841 sur le travail des enfants[Note 1] et de celle de 1850 sur la location de logements insalubres.
+20 août : Nicolas-Philibert Adelon (mort en 1862), médecin et physiologiste français, auteur de la Physiologie de l'homme en 4 volumes.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1782_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1782_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>6 novembre : Aloys Paul Trabucco (it) (né en 1744), médecin italien.</t>
         </is>
